--- a/participants/participant_43/participant_43_task_orders.xlsx
+++ b/participants/participant_43/participant_43_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731390259187" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731410210252" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731410219922" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731410699937" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731411330261" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912733290226" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912751280103" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912751280103" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650291275176032" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912752577643" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731389908862.csv</t>
+          <t>go_stims-1650291273274681.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731390088851.csv</t>
+          <t>GNG_stims-16502912732972128.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731390108852.csv</t>
+          <t>go_stims-1650291273298216.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873139024884.csv</t>
+          <t>GNG_stims-16502912733280246.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498731404579933.csv</t>
+          <t>OB-16502912741268868.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16498731407009914.csv</t>
+          <t>ZB-match_6-16502912737643564.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_0-1649873139987917.csv</t>
+          <t>OB-16502912741931415.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16498731400928838.csv</t>
+          <t>ZB-match_2-16502912740440402.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498731394838884.csv</t>
+          <t>TB-16502912751061578.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_5-1649873139039883.csv</t>
+          <t>ZB-match_0-16502912738972123.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16498731404879947.csv</t>
+          <t>OB-16502912741622965.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1649873141002025.csv</t>
+          <t>TB-16502912745240514.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498731406179934.csv</t>
+          <t>TB-16502912746882966.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498731410370255.csv</t>
+          <t>MM_stims-16502912751443212.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731410249982.csv</t>
+          <t>ZM_stims-16502912751321566.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731410529935.csv</t>
+          <t>MM_stims-1650291275159978.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873141037993.csv</t>
+          <t>ZM_stims-16502912751453218.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731410690253.csv</t>
+          <t>MM_stims-16502912751749415.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731410539908.csv</t>
+          <t>ZM_stims-16502912751609433.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731411009994.csv</t>
+          <t>SAT_stims-1650291275180902.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731410850255.csv</t>
+          <t>vSAT_stims-16502912752418585.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731411170309.csv</t>
+          <t>vSAT_stims-16502912752217908.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731410729926.csv</t>
+          <t>SAT_stims-1650291275205986.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_43/participant_43_task_orders.xlsx
+++ b/participants/participant_43/participant_43_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912733290226" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912751280103" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912751280103" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650291275176032" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912752577643" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650477884350006" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778864404771" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650477886446441" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778865054402" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778865664756" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650291273274681.csv</t>
+          <t>go_stims-16504778843220067.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912732972128.csv</t>
+          <t>GNG_stims-1650477884334004.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291273298216.csv</t>
+          <t>go_stims-16504778843350043.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912733280246.csv</t>
+          <t>GNG_stims-16504778843490045.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16502912741268868.csv</t>
+          <t>OB-1650477885693008.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502912737643564.csv</t>
+          <t>ZB-match_7-16504778847490065.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502912741931415.csv</t>
+          <t>TB-1650477886214008.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502912740440402.csv</t>
+          <t>TB-16504778864154425.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16502912751061578.csv</t>
+          <t>OB-16504778853370087.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502912738972123.csv</t>
+          <t>OB-1650477885305012.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502912741622965.csv</t>
+          <t>ZB-match_1-16504778845050418.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502912745240514.csv</t>
+          <t>TB-16504778859310417.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502912746882966.csv</t>
+          <t>ZB-match_1-16504778848970375.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912751443212.csv</t>
+          <t>MM_stims-16504778864724753.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912751321566.csv</t>
+          <t>ZM_stims-1650477886449441.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291275159978.csv</t>
+          <t>MM_stims-1650477886488475.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912751453218.csv</t>
+          <t>ZM_stims-16504778864734426.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912751749415.csv</t>
+          <t>MM_stims-16504778865044754.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912751609433.csv</t>
+          <t>ZM_stims-1650477886489441.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291275180902.csv</t>
+          <t>SAT_stims-16504778865204728.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912752418585.csv</t>
+          <t>vSAT_stims-16504778865514753.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912752217908.csv</t>
+          <t>vSAT_stims-16504778865354755.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291275205986.csv</t>
+          <t>SAT_stims-16504778865084748.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_43/participant_43_task_orders.xlsx
+++ b/participants/participant_43/participant_43_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650477884350006" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778864404771" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650477886446441" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778865054402" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778865664756" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961825567062" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961848607035" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961848607035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961849247053" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961849967093" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778843220067.csv</t>
+          <t>go_stims-16509961825167046.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477884334004.csv</t>
+          <t>GNG_stims-16509961825407057.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778843350043.csv</t>
+          <t>go_stims-16509961825407057.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778843490045.csv</t>
+          <t>GNG_stims-16509961825567062.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650477885693008.csv</t>
+          <t>OB-16509961836287057.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_7-16504778847490065.csv</t>
+          <t>ZB-match_5-16509961833967407.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1650477886214008.csv</t>
+          <t>TB-1650996184836705.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16504778864154425.csv</t>
+          <t>ZB-match_2-16509961828607552.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16504778853370087.csv</t>
+          <t>TB-16509961842847033.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1650477885305012.csv</t>
+          <t>TB-16509961847007456.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778845050418.csv</t>
+          <t>OB-16509961840527415.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16504778859310417.csv</t>
+          <t>OB-16509961835327418.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778848970375.csv</t>
+          <t>ZB-match_2-16509961832607038.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778864724753.csv</t>
+          <t>MM_stims-1650996184892739.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477886449441.csv</t>
+          <t>ZM_stims-16509961848687057.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650477886488475.csv</t>
+          <t>MM_stims-16509961849087396.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778864734426.csv</t>
+          <t>ZM_stims-1650996184892739.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778865044754.csv</t>
+          <t>MM_stims-16509961849247053.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477886489441.csv</t>
+          <t>ZM_stims-16509961849087396.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778865204728.csv</t>
+          <t>SAT_stims-16509961849407053.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778865514753.csv</t>
+          <t>SAT_stims-16509961849247053.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778865354755.csv</t>
+          <t>vSAT_stims-16509961849647412.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778865084748.csv</t>
+          <t>vSAT_stims-16509961849807403.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_43/participant_43_task_orders.xlsx
+++ b/participants/participant_43/participant_43_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961825567062" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961848607035" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961848607035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961849247053" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961849967093" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168785759805" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168787818858" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687878208532" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651168787867995" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651168787960767" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961825167046.csv</t>
+          <t>go_stims-16511687857208617.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961825407057.csv</t>
+          <t>GNG_stims-16511687857433739.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961825407057.csv</t>
+          <t>go_stims-1651168785745334.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961825567062.csv</t>
+          <t>GNG_stims-16511687857587583.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509961836287057.csv</t>
+          <t>OB-1651168786671615.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509961833967407.csv</t>
+          <t>OB-1651168787119061.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1650996184836705.csv</t>
+          <t>ZB-match_2-16511687858756578.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_2-16509961828607552.csv</t>
+          <t>TB-16511687877981627.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509961842847033.csv</t>
+          <t>TB-16511687875457718.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509961847007456.csv</t>
+          <t>ZB-match_2-16511687858359709.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16509961840527415.csv</t>
+          <t>ZB-match_8-16511687857713926.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961835327418.csv</t>
+          <t>OB-1651168786908654.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_2-16509961832607038.csv</t>
+          <t>TB-16511687876097898.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650996184892739.csv</t>
+          <t>MM_stims-1651168787834725.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961848687057.csv</t>
+          <t>ZM_stims-1651168787821852.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961849087396.csv</t>
+          <t>MM_stims-16511687878516018.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996184892739.csv</t>
+          <t>ZM_stims-1651168787834725.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961849247053.csv</t>
+          <t>MM_stims-16511687878670313.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961849087396.csv</t>
+          <t>ZM_stims-16511687878516018.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961849407053.csv</t>
+          <t>SAT_stims-1651168787898308.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961849247053.csv</t>
+          <t>vSAT_stims-1651168787913476.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961849647412.csv</t>
+          <t>SAT_stims-1651168787872054.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961849807403.csv</t>
+          <t>vSAT_stims-16511687879447594.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_43/participant_43_task_orders.xlsx
+++ b/participants/participant_43/participant_43_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168785759805" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168787818858" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687878208532" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651168787867995" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651168787960767" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512556085069742" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512556126235564" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512556126255586" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651255612672559" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512556127515578" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687857208617.csv</t>
+          <t>go_stims-1651255608473977.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687857433739.csv</t>
+          <t>GNG_stims-16512556084889762.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651168785745334.csv</t>
+          <t>go_stims-16512556084909754.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687857587583.csv</t>
+          <t>GNG_stims-16512556085049748.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1651168786671615.csv</t>
+          <t>ZB-match_1-16512556088239748.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1651168787119061.csv</t>
+          <t>OB-1651255609860827.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511687858756578.csv</t>
+          <t>TB-1651255612611557.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511687877981627.csv</t>
+          <t>TB-16512556114305809.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511687875457718.csv</t>
+          <t>ZB-match_0-1651255609281974.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511687858359709.csv</t>
+          <t>ZB-match_1-16512556087829742.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_8-16511687857713926.csv</t>
+          <t>OB-1651255609585828.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1651168786908654.csv</t>
+          <t>OB-1651255609462827.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16511687876097898.csv</t>
+          <t>TB-16512556125685568.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1651168787834725.csv</t>
+          <t>MM_stims-16512556126395566.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168787821852.csv</t>
+          <t>ZM_stims-16512556126285589.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687878516018.csv</t>
+          <t>MM_stims-16512556126555617.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168787834725.csv</t>
+          <t>ZM_stims-16512556126405585.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687878670313.csv</t>
+          <t>MM_stims-16512556126715574.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687878516018.csv</t>
+          <t>ZM_stims-1651255612657558.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168787898308.csv</t>
+          <t>vSAT_stims-16512556127195597.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168787913476.csv</t>
+          <t>SAT_stims-16512556126785576.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168787872054.csv</t>
+          <t>SAT_stims-16512556127035596.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687879447594.csv</t>
+          <t>vSAT_stims-16512556127365596.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_43/participant_43_task_orders.xlsx
+++ b/participants/participant_43/participant_43_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512556085069742" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512556126235564" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512556126255586" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651255612672559" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512556127515578" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TOL_TO-16515890337749622" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16515890352040193" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16515890352040193" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_TO-16515890352352693" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16515890352977805" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651255608473977.csv</t>
+          <t>MM_stims-16515890337437139.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556084889762.csv</t>
+          <t>ZM_stims-16515890337280896.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512556084909754.csv</t>
+          <t>MM_stims-16515890337593365.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556085049748.csv</t>
+          <t>ZM_stims-16515890337437139.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515890337749622.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515890337593365.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512556088239748.csv</t>
+          <t>OB-16515890347923858.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +546,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1651255609860827.csv</t>
+          <t>TB-16515890348705106.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1651255612611557.csv</t>
+          <t>OB-16515890347142923.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512556114305809.csv</t>
+          <t>ZB-match_5-16515890339348633.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_0-1651255609281974.csv</t>
+          <t>ZB-match_9-165158903414242.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512556087829742.csv</t>
+          <t>TB-16515890351883948.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +596,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1651255609585828.csv</t>
+          <t>TB-16515890348392608.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +606,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1651255609462827.csv</t>
+          <t>ZB-match_2-16515890343996549.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +616,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16512556125685568.csv</t>
+          <t>OB-1651589034761171.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +652,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +662,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -657,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +698,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512556126395566.csv</t>
+          <t>go_stims-16515890352040193.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +708,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556126285589.csv</t>
+          <t>GNG_stims-1651589035219645.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +718,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512556126555617.csv</t>
+          <t>go_stims-1651589035219645.csv</t>
         </is>
       </c>
     </row>
@@ -708,27 +728,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556126405585.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512556126715574.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255612657558.csv</t>
+          <t>GNG_stims-16515890352352693.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512556127195597.csv</t>
+          <t>SAT_stims-16515890352508934.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512556126785576.csv</t>
+          <t>vSAT_stims-1651589035266519.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16512556127035596.csv</t>
+          <t>vSAT_stims-1651589035282145.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512556127365596.csv</t>
+          <t>SAT_stims-16515890352352693.csv</t>
         </is>
       </c>
     </row>
